--- a/both.xlsx
+++ b/both.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dkurguzi\Remote-Banking-Brokers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23762481-BE77-440A-B791-EC4BB2BD7D8A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8681D9-198E-427D-9038-C2E37F1AFD18}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,9 +111,6 @@
     <t>МТС</t>
   </si>
   <si>
-    <t>Уралсиб</t>
-  </si>
-  <si>
     <t>ХоумКредит</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>Минимальная сумма вклада</t>
+  </si>
+  <si>
+    <t>Банк Уралсиб</t>
   </si>
 </sst>
 </file>
@@ -979,7 +979,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1001,7 +1001,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -1667,8 +1667,8 @@
       <c r="N17" s="6"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="A18" t="s">
+        <v>32</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="2">
@@ -1708,7 +1708,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="2">
@@ -1748,7 +1748,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="2">
@@ -1788,7 +1788,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="2">

--- a/both.xlsx
+++ b/both.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dkurguzi\Remote-Banking-Brokers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pycharmworkspace\Remote-Banking-Brokers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF671C23-5773-4881-BAD2-0BF1FCE0A1EA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -129,7 +128,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -656,49 +655,49 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="22" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="26" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="30" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="34" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="19" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="23" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="27" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="31" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="35" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="39" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="20" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="24" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="28" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="32" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="36" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="40" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="21" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="25" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="29" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="33" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="37" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="15" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="41" xr:uid="{55E88C1E-D81D-4BF4-805A-C287543E0889}"/>
-    <cellStyle name="Note 2" xfId="42" xr:uid="{32511B60-70D3-4FA4-B945-EF6FEDFBFBF2}"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% — акцент1" xfId="18" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% — акцент2" xfId="22" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% — акцент3" xfId="26" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% — акцент4" xfId="30" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% — акцент5" xfId="34" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% — акцент6" xfId="38" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% — акцент1" xfId="19" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% — акцент2" xfId="23" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% — акцент3" xfId="27" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% — акцент4" xfId="31" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% — акцент5" xfId="35" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% — акцент6" xfId="39" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% — акцент1" xfId="20" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% — акцент2" xfId="24" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% — акцент3" xfId="28" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% — акцент4" xfId="32" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% — акцент5" xfId="36" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% — акцент6" xfId="40" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Normal 2" xfId="41"/>
+    <cellStyle name="Note 2" xfId="42"/>
+    <cellStyle name="Акцент1" xfId="17" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Акцент2" xfId="21" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Акцент3" xfId="25" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Акцент4" xfId="29" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Акцент5" xfId="33" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Акцент6" xfId="37" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ввод " xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Вывод" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Вычисление" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Заголовок 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Заголовок 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Заголовок 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Заголовок 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Итог" xfId="16" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Контрольная ячейка" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Название" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Нейтральный" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Пояснение" xfId="15" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Связанная ячейка" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -975,14 +974,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="9.54296875" customWidth="1"/>
+    <col min="8" max="8" width="8.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -1401,7 +1404,7 @@
         <v>6</v>
       </c>
       <c r="F11" s="1">
-        <v>500000</v>
+        <v>50000</v>
       </c>
       <c r="G11" s="2">
         <v>5000000</v>
